--- a/test/fuzzy_extractor/fuzzy_extractror_enhanced.xlsx
+++ b/test/fuzzy_extractor/fuzzy_extractror_enhanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\Desktop\Main\City\Individual Project\Source code\test\fuzzy_extractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC1B28B-1468-46B7-9602-4CFDA4EDF8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F22A59-FD2D-4516-9374-BCE777F61D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="690" windowWidth="16065" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,8 +575,8 @@
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <f xml:space="preserve"> SUM(1, -D4, -E4)</f>
-        <v>0</v>
+        <f xml:space="preserve"> (5 * SUM(1, -E4) + 4 * SUM(1, -D4)) / 9</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G4" s="11">
         <v>391.07313340000002</v>
@@ -610,8 +610,8 @@
         <v>0</v>
       </c>
       <c r="F6" s="10">
-        <f xml:space="preserve"> SUM(1, -D6, -E6)</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F8" si="0" xml:space="preserve"> (5 * SUM(1, -E6) + 4 * SUM(1, -D6)) / 9</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G6" s="9">
         <v>121</v>
@@ -643,8 +643,8 @@
         <v>0</v>
       </c>
       <c r="F8" s="10">
-        <f xml:space="preserve"> SUM(1, -D8, -E8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G8" s="9">
         <v>46.662158600000097</v>
